--- a/medicine/Psychotrope/Vieille_brune/Vieille_brune.xlsx
+++ b/medicine/Psychotrope/Vieille_brune/Vieille_brune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une vieille brune, ou oud bruin, est un type de bière belge de Flandre-Orientale, notamment autour d'Audenarde. Cette bière est de type ale à fermentation haute et est très proche de la bière rouge de Flandre-Occidentale, avec laquelle elle se confond par sa robe bordeaux, rubis ou rouge, mais diffère profondément des brunes hollandaises, qui sont des lagers foncées, comparables à des produits belges tels que la Piedbœuf ou le Faro (bière), brassées à Alken (dans le Limbourg belge).
 Elle est élaborée à partir d'un mélange de bières jeune et vieille ainsi que de variétés particulières de malts, de houblons, de sucres (bruns et candis) et de levures. Toutefois, elle n'est pas toujours vieillie en fût de chêne, mais de cuivre.
